--- a/Weather_Application_Requirement_Documentation.xlsx
+++ b/Weather_Application_Requirement_Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherryruthvictor/Desktop/Weather_Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C97222-280F-994A-964E-0915D2376402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE627B-AF5D-E141-9369-1ACB925D8546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A701C1AF-4B97-3947-8589-15C9D8FF0249}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{A701C1AF-4B97-3947-8589-15C9D8FF0249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>WEATHER  APPLICATION REQUIREMENT DOCUMENTATION</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>The user must be displayed an error message if the "Go" button is selected without selecting both the fields.</t>
+  </si>
+  <si>
+    <t>WA_004</t>
   </si>
 </sst>
 </file>
@@ -154,30 +157,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -496,291 +500,293 @@
   <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
     </row>
     <row r="4" spans="1:35" ht="21" thickBot="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="6" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
     </row>
     <row r="5" spans="1:35" ht="16" customHeight="1" thickTop="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="7" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
     </row>
     <row r="6" spans="1:35" ht="16" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="2" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
     </row>
     <row r="7" spans="1:35" ht="16" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="2" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
     </row>
     <row r="8" spans="1:35" ht="16" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
@@ -793,237 +799,250 @@
       <c r="AG8" s="4"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H4:W4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="X4:AI4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:U2"/>
+    <mergeCell ref="X8:AG8"/>
+    <mergeCell ref="H5:W5"/>
+    <mergeCell ref="H6:W6"/>
+    <mergeCell ref="H7:W7"/>
+    <mergeCell ref="H8:W8"/>
+    <mergeCell ref="X5:AI5"/>
+    <mergeCell ref="X6:AI6"/>
+    <mergeCell ref="X7:AI7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
@@ -1032,19 +1051,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="X8:AG8"/>
-    <mergeCell ref="H5:W5"/>
-    <mergeCell ref="H6:W6"/>
-    <mergeCell ref="H7:W7"/>
-    <mergeCell ref="H8:W8"/>
-    <mergeCell ref="X5:AI5"/>
-    <mergeCell ref="X6:AI6"/>
-    <mergeCell ref="X7:AI7"/>
-    <mergeCell ref="H4:W4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="X4:AI4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
